--- a/DataTemplate_0908.xlsx
+++ b/DataTemplate_0908.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild=""/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="위험지표공시" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">필수
 </t>
@@ -238,6 +238,90 @@
   </si>
   <si>
     <t>필수</t>
+  </si>
+  <si>
+    <t>제목(공시제목)</t>
+  </si>
+  <si>
+    <t>내용(HTML)</t>
+  </si>
+  <si>
+    <t>공시일자</t>
+  </si>
+  <si>
+    <t>첨부파일1</t>
+  </si>
+  <si>
+    <t>첨부파일2</t>
+  </si>
+  <si>
+    <t>첨부파일3</t>
+  </si>
+  <si>
+    <t>첨부파일4</t>
+  </si>
+  <si>
+    <t>첨부파일5</t>
+  </si>
+  <si>
+    <t>회사명</t>
+  </si>
+  <si>
+    <t>집합투자증권금액</t>
+  </si>
+  <si>
+    <t>위탁비중</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>VARCHAR()</t>
+  </si>
+  <si>
+    <t>기준년월</t>
+  </si>
+  <si>
+    <t>국내/해외 구분</t>
+  </si>
+  <si>
+    <t>펀드명</t>
+  </si>
+  <si>
+    <t>보험사명</t>
+  </si>
+  <si>
+    <t>운용사명</t>
+  </si>
+  <si>
+    <t>계열사</t>
+  </si>
+  <si>
+    <t>순자산액</t>
+  </si>
+  <si>
+    <t>수익률(1년)</t>
+  </si>
+  <si>
+    <t>투자일임보수</t>
+  </si>
+  <si>
+    <t>재간접펀드보수</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>상품코드</t>
+  </si>
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>적용년월</t>
+  </si>
+  <si>
+    <t>적용이율(공시이율)</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1320,29 +1404,29 @@
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>3</v>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.250000" customHeight="1">
@@ -1498,24 +1582,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" ht="14.250000" customHeight="1">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="14"/>
       <c r="B3" s="20" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>2</v>
@@ -1560,40 +1642,40 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="21" customFormat="1" ht="14.250000" customHeight="1">
@@ -1669,19 +1751,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="21" customFormat="1" ht="14.250000" customHeight="1">
@@ -1717,7 +1799,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.250000"/>
@@ -1788,7 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
